--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,109 +46,112 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
@@ -157,24 +160,15 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -184,34 +178,31 @@
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2403100775193799</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +734,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +760,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8436532507739938</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -795,13 +786,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -821,13 +812,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -847,13 +838,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -865,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -873,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -899,13 +890,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6926406926406926</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -917,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -925,13 +916,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6623376623376623</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -951,13 +942,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -977,13 +968,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6271186440677966</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L15">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -995,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1003,13 +994,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6235955056179775</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>777</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>777</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>469</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1029,13 +1020,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6111111111111112</v>
+        <v>0.625</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1055,13 +1046,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>770</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>770</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1073,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1081,13 +1072,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5918367346938775</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1107,13 +1098,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1125,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1133,13 +1124,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1151,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1185,13 +1176,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1211,13 +1202,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1229,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1237,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.53125</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1263,13 +1254,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5089820359281437</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L26">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1289,13 +1280,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1315,13 +1306,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1333,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1341,13 +1332,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4615384615384616</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1359,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1367,13 +1358,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4511278195488722</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1385,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1393,13 +1384,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1411,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1419,13 +1410,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4078947368421053</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1437,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1445,13 +1436,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3950617283950617</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1463,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1471,13 +1462,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3815789473684211</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1489,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1497,13 +1488,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3795180722891566</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L35">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="M35">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1515,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>103</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1523,13 +1514,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3657587548638132</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L36">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1541,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1549,13 +1540,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3602941176470588</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L37">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1567,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>261</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1575,13 +1566,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3423423423423423</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1593,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>73</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1601,13 +1592,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.316546762589928</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1619,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1627,13 +1618,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3157894736842105</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1645,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1653,13 +1644,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2777777777777778</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1671,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1679,13 +1670,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2561643835616438</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L42">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1697,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>543</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1705,13 +1696,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2488038277511962</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="M43">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1723,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>157</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1731,13 +1722,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2381465517241379</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L44">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="M44">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1746,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>707</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1757,13 +1748,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2185430463576159</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1775,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>118</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1783,13 +1774,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2037617554858934</v>
+        <v>0.1560102301790281</v>
       </c>
       <c r="L46">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="M46">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1801,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>254</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1809,25 +1800,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1735099337748344</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L47">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>624</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1835,13 +1826,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1675191815856777</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L48">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1853,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>651</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1861,13 +1852,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.121654501216545</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L49">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1879,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1887,25 +1878,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1135135135135135</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L50">
         <v>42</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>328</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1913,13 +1904,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1090909090909091</v>
+        <v>0.09772727272727273</v>
       </c>
       <c r="L51">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1931,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1939,13 +1930,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1065292096219931</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1957,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>260</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1965,25 +1956,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.08771929824561403</v>
+        <v>0.07890961262553801</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>416</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2017,103 +2008,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.07173601147776183</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="M55">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56">
-        <v>0.07159904534606205</v>
-      </c>
-      <c r="L56">
-        <v>30</v>
-      </c>
-      <c r="M56">
-        <v>30</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57">
-        <v>0.05037313432835821</v>
-      </c>
-      <c r="L57">
-        <v>54</v>
-      </c>
-      <c r="M57">
-        <v>54</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K58">
-        <v>0.02508650519031142</v>
-      </c>
-      <c r="L58">
-        <v>29</v>
-      </c>
-      <c r="M58">
-        <v>30</v>
-      </c>
-      <c r="N58">
-        <v>0.97</v>
-      </c>
-      <c r="O58">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1127</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
